--- a/12414214.xlsx
+++ b/12414214.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист6" sheetId="6" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId5"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId6"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId3"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId6"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Тип материала</t>
   </si>
@@ -215,6 +216,9 @@
   </si>
   <si>
     <t>Минимальная стоимость для партнера</t>
+  </si>
+  <si>
+    <t>https://github.com/Ranimeboy/ra1</t>
   </si>
 </sst>
 </file>
@@ -623,63 +627,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -693,7 +715,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,10 +922,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,12 +1001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,19 +1313,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
@@ -1346,12 +1388,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
